--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37537.69280970573</v>
+        <v>7470000.869131438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37537.69280970573</v>
+        <v>7470000.869131438</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31204.24399625879</v>
+        <v>2286465.355783265</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>31204.24399625879</v>
+        <v>2286465.355783265</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495290789.281079</v>
+        <v>59018856.44389497</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12103.93304418296</v>
+        <v>1318631.298438968</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23634.28794685155</v>
+        <v>2547038.251087301</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35161.87113234842</v>
+        <v>3774893.632018465</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49335.39623328281</v>
+        <v>4981175.698589176</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63246.79608169189</v>
+        <v>6135294.839907361</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>77158.19593010098</v>
+        <v>7289413.981225544</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91069.59577851008</v>
+        <v>8443533.122543724</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104980.9956269192</v>
+        <v>9597652.263861902</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118975.7837511092</v>
+        <v>10747237.62655682</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132896.7658217406</v>
+        <v>11900805.19615782</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146820.5196095437</v>
+        <v>13054924.337476</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158109.4858019535</v>
+        <v>14230654.02654776</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169660.5772468885</v>
+        <v>15458546.64087205</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182227.8594417677</v>
+        <v>16543408.98372515</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>194852.3712708115</v>
+        <v>17619261.25805048</v>
       </c>
     </row>
   </sheetData>
